--- a/reports/model_comparison_table_1.xlsx
+++ b/reports/model_comparison_table_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,26 @@
           <t>test_f1_std</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>train_auc_mean</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>train_auc_std</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>test_auc_mean</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>test_auc_std</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -462,16 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6400478898533373</v>
+        <v>0.6657288237054775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01898551092140342</v>
+        <v>0.02030859421041251</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6313397129186603</v>
+        <v>0.6294258373205742</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01861422360184392</v>
+        <v>0.01489030269817745</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8633649170189001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02419685626886079</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8226899596653634</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01229899196398712</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6028135288835678</v>
+        <v>0.6484286141873691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02715335152359586</v>
+        <v>0.002486989293964791</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5980861244019138</v>
+        <v>0.6296650717703349</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01980017387230485</v>
+        <v>0.01682483346652369</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8377362221948003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00515588624869271</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8250505286560126</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01405039152506807</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +544,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.7585154145465429</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.02194213185177669</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6433014354066986</v>
+        <v>0.6504784688995214</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0157495508044333</v>
+        <v>0.01007628693236968</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9429673530162714</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0103405237850859</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8567615011325733</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.006371552262075229</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +575,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6970966776414247</v>
+        <v>0.7221191260101765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01219047246086584</v>
+        <v>0.01081604556517469</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6495215311004785</v>
+        <v>0.6447368421052632</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01325540208344027</v>
+        <v>0.0148441072320465</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9081177555601091</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00872448205911735</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8477274261429854</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.009114870178775806</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +606,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7339120023944927</v>
+        <v>0.7060161628255013</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06486075795855746</v>
+        <v>0.02514317068757808</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6428229665071771</v>
+        <v>0.6464114832535885</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01218922411756649</v>
+        <v>0.008777003027676644</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9017459306803971</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01583270590270821</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8548609096269795</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.009381170360451847</v>
       </c>
     </row>
   </sheetData>

--- a/reports/model_comparison_table_1.xlsx
+++ b/reports/model_comparison_table_1.xlsx
@@ -1,37 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junkim/Desktop/math3856/ml_assignment_2/reports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7428D64-454A-8645-86FA-C68E779698CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>train_f1_mean</t>
+  </si>
+  <si>
+    <t>train_f1_std</t>
+  </si>
+  <si>
+    <t>test_f1_mean</t>
+  </si>
+  <si>
+    <t>test_f1_std</t>
+  </si>
+  <si>
+    <t>train_auc_mean</t>
+  </si>
+  <si>
+    <t>train_auc_std</t>
+  </si>
+  <si>
+    <t>test_auc_mean</t>
+  </si>
+  <si>
+    <t>test_auc_std</t>
+  </si>
+  <si>
+    <t>pre_tree</t>
+  </si>
+  <si>
+    <t>post_tree</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>gb</t>
+  </si>
+  <si>
+    <t>xgb</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +97,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,214 +421,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="261" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>train_f1_mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>train_f1_std</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>test_f1_mean</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>test_f1_std</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>train_auc_mean</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>train_auc_std</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>test_auc_mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>test_auc_std</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>pre_tree</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6657288237054775</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.02030859421041251</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6294258373205742</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01489030269817745</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8633649170189001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.02419685626886079</v>
-      </c>
-      <c r="H2" t="n">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.66572882370547748</v>
+      </c>
+      <c r="C2">
+        <v>2.030859421041251E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.62942583732057422</v>
+      </c>
+      <c r="E2">
+        <v>1.4890302698177449E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.86336491701890006</v>
+      </c>
+      <c r="G2">
+        <v>2.419685626886079E-2</v>
+      </c>
+      <c r="H2">
         <v>0.8226899596653634</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.01229899196398712</v>
+      <c r="I2">
+        <v>1.229899196398712E-2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>post_tree</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6484286141873691</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.002486989293964791</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6296650717703349</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01682483346652369</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8377362221948003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00515588624869271</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8250505286560126</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.01405039152506807</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.64842861418736908</v>
+      </c>
+      <c r="C3">
+        <v>2.4869892939647911E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.62966507177033493</v>
+      </c>
+      <c r="E3">
+        <v>1.6824833466523689E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.83773622219480026</v>
+      </c>
+      <c r="G3">
+        <v>5.1558862486927098E-3</v>
+      </c>
+      <c r="H3">
+        <v>0.82505052865601258</v>
+      </c>
+      <c r="I3">
+        <v>1.405039152506807E-2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>rf</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7585154145465429</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02194213185177669</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6504784688995214</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01007628693236968</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9429673530162714</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0103405237850859</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8567615011325733</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.006371552262075229</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.75851541454654292</v>
+      </c>
+      <c r="C4">
+        <v>2.1942131851776691E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.65047846889952143</v>
+      </c>
+      <c r="E4">
+        <v>1.007628693236968E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.94296735301627144</v>
+      </c>
+      <c r="G4">
+        <v>1.03405237850859E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.85676150113257332</v>
+      </c>
+      <c r="I4">
+        <v>6.3715522620752287E-3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>gb</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7221191260101765</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.01081604556517469</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6447368421052632</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0148441072320465</v>
-      </c>
-      <c r="F5" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.72211912601017647</v>
+      </c>
+      <c r="C5">
+        <v>1.081604556517469E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.64473684210526316</v>
+      </c>
+      <c r="E5">
+        <v>1.4844107232046501E-2</v>
+      </c>
+      <c r="F5">
         <v>0.9081177555601091</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.00872448205911735</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8477274261429854</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.009114870178775806</v>
+      <c r="G5">
+        <v>8.7244820591173503E-3</v>
+      </c>
+      <c r="H5">
+        <v>0.84772742614298535</v>
+      </c>
+      <c r="I5">
+        <v>9.1148701787758055E-3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>xgb</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.7060161628255013</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02514317068757808</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6464114832535885</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.008777003027676644</v>
-      </c>
-      <c r="F6" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.70601616282550128</v>
+      </c>
+      <c r="C6">
+        <v>2.5143170687578081E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.64641148325358855</v>
+      </c>
+      <c r="E6">
+        <v>8.7770030276766442E-3</v>
+      </c>
+      <c r="F6">
         <v>0.9017459306803971</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.01583270590270821</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8548609096269795</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.009381170360451847</v>
+      <c r="G6">
+        <v>1.5832705902708209E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.85486090962697947</v>
+      </c>
+      <c r="I6">
+        <v>9.3811703604518466E-3</v>
       </c>
     </row>
   </sheetData>

--- a/reports/model_comparison_table_1.xlsx
+++ b/reports/model_comparison_table_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junkim/Desktop/math3856/ml_assignment_2/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7428D64-454A-8645-86FA-C68E779698CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F278A8-20D1-EA49-8885-AFCDA4801A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="3080" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>train_f1_mean</t>
   </si>
@@ -46,10 +46,7 @@
     <t>test_auc_std</t>
   </si>
   <si>
-    <t>pre_tree</t>
-  </si>
-  <si>
-    <t>post_tree</t>
+    <t>dt</t>
   </si>
   <si>
     <t>rf</t>
@@ -422,14 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="261" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
@@ -469,28 +467,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.66572882370547748</v>
+        <v>0.64434001795869489</v>
       </c>
       <c r="C2">
-        <v>2.030859421041251E-2</v>
+        <v>6.105607093675817E-3</v>
       </c>
       <c r="D2">
-        <v>0.62942583732057422</v>
+        <v>0.62473684210526315</v>
       </c>
       <c r="E2">
-        <v>1.4890302698177449E-2</v>
+        <v>1.31775407921306E-2</v>
       </c>
       <c r="F2">
-        <v>0.86336491701890006</v>
+        <v>0.84817780839464785</v>
       </c>
       <c r="G2">
-        <v>2.419685626886079E-2</v>
+        <v>3.703038434242331E-3</v>
       </c>
       <c r="H2">
-        <v>0.8226899596653634</v>
+        <v>0.82479030346928794</v>
       </c>
       <c r="I2">
-        <v>1.229899196398712E-2</v>
+        <v>9.9164551187515219E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -498,28 +496,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.64842861418736908</v>
+        <v>0.7004908709967077</v>
       </c>
       <c r="C3">
-        <v>2.4869892939647911E-3</v>
+        <v>3.2516921682674408E-3</v>
       </c>
       <c r="D3">
-        <v>0.62966507177033493</v>
+        <v>0.64315789473684204</v>
       </c>
       <c r="E3">
-        <v>1.6824833466523689E-2</v>
+        <v>1.240434659228525E-2</v>
       </c>
       <c r="F3">
-        <v>0.83773622219480026</v>
+        <v>0.90996545640513593</v>
       </c>
       <c r="G3">
-        <v>5.1558862486927098E-3</v>
+        <v>1.121642751377452E-3</v>
       </c>
       <c r="H3">
-        <v>0.82505052865601258</v>
+        <v>0.85235305908457604</v>
       </c>
       <c r="I3">
-        <v>1.405039152506807E-2</v>
+        <v>7.3921353720146094E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -527,28 +525,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.75851541454654292</v>
+        <v>0.69320562705776723</v>
       </c>
       <c r="C4">
-        <v>2.1942131851776691E-2</v>
+        <v>4.869864768491515E-3</v>
       </c>
       <c r="D4">
-        <v>0.65047846889952143</v>
+        <v>0.6455741626794258</v>
       </c>
       <c r="E4">
-        <v>1.007628693236968E-2</v>
+        <v>1.3082100095855149E-2</v>
       </c>
       <c r="F4">
-        <v>0.94296735301627144</v>
+        <v>0.88990413571031279</v>
       </c>
       <c r="G4">
-        <v>1.03405237850859E-2</v>
+        <v>1.489330965895197E-3</v>
       </c>
       <c r="H4">
-        <v>0.85676150113257332</v>
+        <v>0.84825154641317202</v>
       </c>
       <c r="I4">
-        <v>6.3715522620752287E-3</v>
+        <v>8.8953383283867128E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -556,57 +554,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.72211912601017647</v>
+        <v>0.72205327746183767</v>
       </c>
       <c r="C5">
-        <v>1.081604556517469E-2</v>
+        <v>4.8870863544368181E-3</v>
       </c>
       <c r="D5">
-        <v>0.64473684210526316</v>
+        <v>0.64657894736842114</v>
       </c>
       <c r="E5">
-        <v>1.4844107232046501E-2</v>
+        <v>1.322343399121413E-2</v>
       </c>
       <c r="F5">
-        <v>0.9081177555601091</v>
+        <v>0.91646987038339134</v>
       </c>
       <c r="G5">
-        <v>8.7244820591173503E-3</v>
+        <v>1.223206906575898E-3</v>
       </c>
       <c r="H5">
-        <v>0.84772742614298535</v>
+        <v>0.85142207139467085</v>
       </c>
       <c r="I5">
-        <v>9.1148701787758055E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0.70601616282550128</v>
-      </c>
-      <c r="C6">
-        <v>2.5143170687578081E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.64641148325358855</v>
-      </c>
-      <c r="E6">
-        <v>8.7770030276766442E-3</v>
-      </c>
-      <c r="F6">
-        <v>0.9017459306803971</v>
-      </c>
-      <c r="G6">
-        <v>1.5832705902708209E-2</v>
-      </c>
-      <c r="H6">
-        <v>0.85486090962697947</v>
-      </c>
-      <c r="I6">
-        <v>9.3811703604518466E-3</v>
+        <v>7.8455595804320395E-3</v>
       </c>
     </row>
   </sheetData>

--- a/reports/model_comparison_table_1.xlsx
+++ b/reports/model_comparison_table_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junkim/Desktop/math3856/ml_assignment_2/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F278A8-20D1-EA49-8885-AFCDA4801A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A53F61B-2E79-1149-8000-A7782A5B4A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="3080" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,28 +467,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.64434001795869489</v>
+        <v>0.63991020652499253</v>
       </c>
       <c r="C2">
-        <v>6.105607093675817E-3</v>
+        <v>7.0572593792685434E-3</v>
       </c>
       <c r="D2">
-        <v>0.62473684210526315</v>
+        <v>0.62162679425837319</v>
       </c>
       <c r="E2">
-        <v>1.31775407921306E-2</v>
+        <v>1.3043083263400659E-2</v>
       </c>
       <c r="F2">
-        <v>0.84817780839464785</v>
+        <v>0.84344614244021043</v>
       </c>
       <c r="G2">
-        <v>3.703038434242331E-3</v>
+        <v>3.560147315461116E-3</v>
       </c>
       <c r="H2">
-        <v>0.82479030346928794</v>
+        <v>0.82256176258105185</v>
       </c>
       <c r="I2">
-        <v>9.9164551187515219E-3</v>
+        <v>1.0486821286881441E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -496,28 +496,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7004908709967077</v>
+        <v>0.83622867404968571</v>
       </c>
       <c r="C3">
-        <v>3.2516921682674408E-3</v>
+        <v>4.1184925831903333E-3</v>
       </c>
       <c r="D3">
-        <v>0.64315789473684204</v>
+        <v>0.64413875598086123</v>
       </c>
       <c r="E3">
-        <v>1.240434659228525E-2</v>
+        <v>1.3230011156863491E-2</v>
       </c>
       <c r="F3">
-        <v>0.90996545640513593</v>
+        <v>0.97518147104615982</v>
       </c>
       <c r="G3">
-        <v>1.121642751377452E-3</v>
+        <v>7.4999643072390788E-4</v>
       </c>
       <c r="H3">
-        <v>0.85235305908457604</v>
+        <v>0.85241959630538588</v>
       </c>
       <c r="I3">
-        <v>7.3921353720146094E-3</v>
+        <v>6.8680017573585616E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -525,28 +525,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.69320562705776723</v>
+        <v>0.74993714456749483</v>
       </c>
       <c r="C4">
-        <v>4.869864768491515E-3</v>
+        <v>3.5858527043291211E-3</v>
       </c>
       <c r="D4">
-        <v>0.6455741626794258</v>
+        <v>0.64473684210526316</v>
       </c>
       <c r="E4">
-        <v>1.3082100095855149E-2</v>
+        <v>1.5718631857392539E-2</v>
       </c>
       <c r="F4">
-        <v>0.88990413571031279</v>
+        <v>0.92517976354118625</v>
       </c>
       <c r="G4">
-        <v>1.489330965895197E-3</v>
+        <v>1.2035440289551241E-3</v>
       </c>
       <c r="H4">
-        <v>0.84825154641317202</v>
+        <v>0.85101996383792444</v>
       </c>
       <c r="I4">
-        <v>8.8953383283867128E-3</v>
+        <v>7.5765899920021678E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -554,28 +554,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.72205327746183767</v>
+        <v>0.69926967973660581</v>
       </c>
       <c r="C5">
-        <v>4.8870863544368181E-3</v>
+        <v>4.4329692587923401E-3</v>
       </c>
       <c r="D5">
-        <v>0.64657894736842114</v>
+        <v>0.64705741626794266</v>
       </c>
       <c r="E5">
-        <v>1.322343399121413E-2</v>
+        <v>1.359940008265066E-2</v>
       </c>
       <c r="F5">
-        <v>0.91646987038339134</v>
+        <v>0.90131304402135914</v>
       </c>
       <c r="G5">
-        <v>1.223206906575898E-3</v>
+        <v>1.3367818680718E-3</v>
       </c>
       <c r="H5">
-        <v>0.85142207139467085</v>
+        <v>0.85123649513920607</v>
       </c>
       <c r="I5">
-        <v>7.8455595804320395E-3</v>
+        <v>8.1098399940837534E-3</v>
       </c>
     </row>
   </sheetData>
